--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cntn2-Nrcam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cntn2-Nrcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Cntn2</t>
+  </si>
+  <si>
+    <t>Nrcam</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Cntn2</t>
-  </si>
-  <si>
-    <t>Nrcam</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,46 +543,46 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1853815</v>
+        <v>0.0700585</v>
       </c>
       <c r="H2">
-        <v>0.370763</v>
+        <v>0.140117</v>
       </c>
       <c r="I2">
-        <v>0.6418326948411097</v>
+        <v>0.4535220567529688</v>
       </c>
       <c r="J2">
-        <v>0.6100042118840943</v>
+        <v>0.4377808049690373</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.423194333333333</v>
+        <v>1.172497</v>
       </c>
       <c r="N2">
-        <v>4.269583</v>
+        <v>2.344994</v>
       </c>
       <c r="O2">
-        <v>0.1134534012532963</v>
+        <v>0.04941711537896878</v>
       </c>
       <c r="P2">
-        <v>0.1605391619578727</v>
+        <v>0.04793039107701846</v>
       </c>
       <c r="Q2">
-        <v>0.2638339003048333</v>
+        <v>0.08214338107449999</v>
       </c>
       <c r="R2">
-        <v>1.583003401829</v>
+        <v>0.328573524298</v>
       </c>
       <c r="S2">
-        <v>0.07281810226529287</v>
+        <v>0.02241175180546869</v>
       </c>
       <c r="T2">
-        <v>0.09792956496664508</v>
+        <v>0.0209830051881779</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,46 +605,46 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1853815</v>
+        <v>0.0700585</v>
       </c>
       <c r="H3">
-        <v>0.370763</v>
+        <v>0.140117</v>
       </c>
       <c r="I3">
-        <v>0.6418326948411097</v>
+        <v>0.4535220567529688</v>
       </c>
       <c r="J3">
-        <v>0.6100042118840943</v>
+        <v>0.4377808049690373</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.03377933333333333</v>
+        <v>1.423194333333333</v>
       </c>
       <c r="N3">
-        <v>0.101338</v>
+        <v>4.269583</v>
       </c>
       <c r="O3">
-        <v>0.002692801797319911</v>
+        <v>0.05998323115285403</v>
       </c>
       <c r="P3">
-        <v>0.003810376234514449</v>
+        <v>0.08726793455581965</v>
       </c>
       <c r="Q3">
-        <v>0.006262063482333334</v>
+        <v>0.09970686020183332</v>
       </c>
       <c r="R3">
-        <v>0.03757238089400001</v>
+        <v>0.5982411612109999</v>
       </c>
       <c r="S3">
-        <v>0.001728328234246822</v>
+        <v>0.02720371836313111</v>
       </c>
       <c r="T3">
-        <v>0.002324345551916869</v>
+        <v>0.03820422663783199</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1853815</v>
+        <v>0.0700585</v>
       </c>
       <c r="H4">
-        <v>0.370763</v>
+        <v>0.140117</v>
       </c>
       <c r="I4">
-        <v>0.6418326948411097</v>
+        <v>0.4535220567529688</v>
       </c>
       <c r="J4">
-        <v>0.6100042118840943</v>
+        <v>0.4377808049690373</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>11.037648</v>
+        <v>0.02188533333333334</v>
       </c>
       <c r="N4">
-        <v>22.075296</v>
+        <v>0.06565600000000001</v>
       </c>
       <c r="O4">
-        <v>0.8798929830641373</v>
+        <v>0.0009223989847654408</v>
       </c>
       <c r="P4">
-        <v>0.8300458194188937</v>
+        <v>0.001341972626178457</v>
       </c>
       <c r="Q4">
-        <v>2.046175742712</v>
+        <v>0.001533253625333334</v>
       </c>
       <c r="R4">
-        <v>8.184702970847999</v>
+        <v>0.009199521752000001</v>
       </c>
       <c r="S4">
-        <v>0.5647440844918382</v>
+        <v>0.000418328284717673</v>
       </c>
       <c r="T4">
-        <v>0.5063314459023095</v>
+        <v>0.0005874898565348179</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1853815</v>
+        <v>0.0700585</v>
       </c>
       <c r="H5">
-        <v>0.370763</v>
+        <v>0.140117</v>
       </c>
       <c r="I5">
-        <v>0.6418326948411097</v>
+        <v>0.4535220567529688</v>
       </c>
       <c r="J5">
-        <v>0.6100042118840943</v>
+        <v>0.4377808049690373</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.044712</v>
+        <v>21.082121</v>
       </c>
       <c r="N5">
-        <v>0.134136</v>
+        <v>42.164242</v>
       </c>
       <c r="O5">
-        <v>0.003564325937805202</v>
+        <v>0.8885460737983815</v>
       </c>
       <c r="P5">
-        <v>0.00504360285966597</v>
+        <v>0.8618139784264042</v>
       </c>
       <c r="Q5">
-        <v>0.008288777628</v>
+        <v>1.4769817740785</v>
       </c>
       <c r="R5">
-        <v>0.04973266576800001</v>
+        <v>5.907927096314</v>
       </c>
       <c r="S5">
-        <v>0.002287700921953578</v>
+        <v>0.4029752429088171</v>
       </c>
       <c r="T5">
-        <v>0.003076618987466904</v>
+        <v>0.3772856172090797</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,51 +791,51 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.1853815</v>
+        <v>0.0700585</v>
       </c>
       <c r="H6">
-        <v>0.370763</v>
+        <v>0.140117</v>
       </c>
       <c r="I6">
-        <v>0.6418326948411097</v>
+        <v>0.4535220567529688</v>
       </c>
       <c r="J6">
-        <v>0.6100042118840943</v>
+        <v>0.4377808049690373</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.004973666666666666</v>
+        <v>0.004358333333333333</v>
       </c>
       <c r="N6">
-        <v>0.014921</v>
+        <v>0.013075</v>
       </c>
       <c r="O6">
-        <v>0.0003964879474413387</v>
+        <v>0.0001836902450013424</v>
       </c>
       <c r="P6">
-        <v>0.0005610395290531693</v>
+        <v>0.0002672458280626801</v>
       </c>
       <c r="Q6">
-        <v>0.0009220257871666666</v>
+        <v>0.0003053382958333333</v>
       </c>
       <c r="R6">
-        <v>0.005532154722999999</v>
+        <v>0.001832029775</v>
       </c>
       <c r="S6">
-        <v>0.0002544789277782947</v>
+        <v>8.330757771846554E-05</v>
       </c>
       <c r="T6">
-        <v>0.0003422364757559019</v>
+        <v>0.000116995093733897</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,7 +844,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,46 +853,46 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.073309</v>
+        <v>0.0700585</v>
       </c>
       <c r="H7">
-        <v>0.146618</v>
+        <v>0.140117</v>
       </c>
       <c r="I7">
-        <v>0.2538123438752352</v>
+        <v>0.4535220567529688</v>
       </c>
       <c r="J7">
-        <v>0.2412257898927944</v>
+        <v>0.4377808049690373</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.423194333333333</v>
+        <v>0.02248066666666667</v>
       </c>
       <c r="N7">
-        <v>4.269583</v>
+        <v>0.067442</v>
       </c>
       <c r="O7">
-        <v>0.1134534012532963</v>
+        <v>0.0009474904400291039</v>
       </c>
       <c r="P7">
-        <v>0.1605391619578727</v>
+        <v>0.001378477486516503</v>
       </c>
       <c r="Q7">
-        <v>0.1043329533823333</v>
+        <v>0.001574961785666666</v>
       </c>
       <c r="R7">
-        <v>0.625997720294</v>
+        <v>0.009449770713999999</v>
       </c>
       <c r="S7">
-        <v>0.02879587369271667</v>
+        <v>0.0004297078131157747</v>
       </c>
       <c r="T7">
-        <v>0.03872618615201508</v>
+        <v>0.0006034709836788897</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.073309</v>
+        <v>0.011109</v>
       </c>
       <c r="H8">
-        <v>0.146618</v>
+        <v>0.033327</v>
       </c>
       <c r="I8">
-        <v>0.2538123438752352</v>
+        <v>0.07191385097409637</v>
       </c>
       <c r="J8">
-        <v>0.2412257898927944</v>
+        <v>0.1041267004517875</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.03377933333333333</v>
+        <v>1.172497</v>
       </c>
       <c r="N8">
-        <v>0.101338</v>
+        <v>2.344994</v>
       </c>
       <c r="O8">
-        <v>0.002692801797319911</v>
+        <v>0.04941711537896878</v>
       </c>
       <c r="P8">
-        <v>0.003810376234514449</v>
+        <v>0.04793039107701846</v>
       </c>
       <c r="Q8">
-        <v>0.002476329147333333</v>
+        <v>0.013025269173</v>
       </c>
       <c r="R8">
-        <v>0.014857974884</v>
+        <v>0.078151615038</v>
       </c>
       <c r="S8">
-        <v>0.0006834663357692127</v>
+        <v>0.003553775070932887</v>
       </c>
       <c r="T8">
-        <v>0.0009191610169594794</v>
+        <v>0.004990833474213729</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.073309</v>
+        <v>0.011109</v>
       </c>
       <c r="H9">
-        <v>0.146618</v>
+        <v>0.033327</v>
       </c>
       <c r="I9">
-        <v>0.2538123438752352</v>
+        <v>0.07191385097409637</v>
       </c>
       <c r="J9">
-        <v>0.2412257898927944</v>
+        <v>0.1041267004517875</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.037648</v>
+        <v>1.423194333333333</v>
       </c>
       <c r="N9">
-        <v>22.075296</v>
+        <v>4.269583</v>
       </c>
       <c r="O9">
-        <v>0.8798929830641373</v>
+        <v>0.05998323115285403</v>
       </c>
       <c r="P9">
-        <v>0.8300458194188937</v>
+        <v>0.08726793455581965</v>
       </c>
       <c r="Q9">
-        <v>0.8091589372319999</v>
+        <v>0.015810265849</v>
       </c>
       <c r="R9">
-        <v>3.236635748928</v>
+        <v>0.142292392641</v>
       </c>
       <c r="S9">
-        <v>0.2233277003908813</v>
+        <v>0.004313625146071119</v>
       </c>
       <c r="T9">
-        <v>0.2002284584365344</v>
+        <v>0.009086922080540027</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.073309</v>
+        <v>0.011109</v>
       </c>
       <c r="H10">
-        <v>0.146618</v>
+        <v>0.033327</v>
       </c>
       <c r="I10">
-        <v>0.2538123438752352</v>
+        <v>0.07191385097409637</v>
       </c>
       <c r="J10">
-        <v>0.2412257898927944</v>
+        <v>0.1041267004517875</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.044712</v>
+        <v>0.02188533333333334</v>
       </c>
       <c r="N10">
-        <v>0.134136</v>
+        <v>0.06565600000000001</v>
       </c>
       <c r="O10">
-        <v>0.003564325937805202</v>
+        <v>0.0009223989847654408</v>
       </c>
       <c r="P10">
-        <v>0.00504360285966597</v>
+        <v>0.001341972626178457</v>
       </c>
       <c r="Q10">
-        <v>0.003277792008</v>
+        <v>0.0002431241680000001</v>
       </c>
       <c r="R10">
-        <v>0.019666752048</v>
+        <v>0.002188117512</v>
       </c>
       <c r="S10">
-        <v>0.0009046699206096342</v>
+        <v>6.63332631290797E-05</v>
       </c>
       <c r="T10">
-        <v>0.00121664708372848</v>
+        <v>0.0001397351816605828</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.073309</v>
+        <v>0.011109</v>
       </c>
       <c r="H11">
-        <v>0.146618</v>
+        <v>0.033327</v>
       </c>
       <c r="I11">
-        <v>0.2538123438752352</v>
+        <v>0.07191385097409637</v>
       </c>
       <c r="J11">
-        <v>0.2412257898927944</v>
+        <v>0.1041267004517875</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.004973666666666666</v>
+        <v>21.082121</v>
       </c>
       <c r="N11">
-        <v>0.014921</v>
+        <v>42.164242</v>
       </c>
       <c r="O11">
-        <v>0.0003964879474413387</v>
+        <v>0.8885460737983815</v>
       </c>
       <c r="P11">
-        <v>0.0005610395290531693</v>
+        <v>0.8618139784264042</v>
       </c>
       <c r="Q11">
-        <v>0.0003646145296666666</v>
+        <v>0.234201282189</v>
       </c>
       <c r="R11">
-        <v>0.002187687178</v>
+        <v>1.405207693134</v>
       </c>
       <c r="S11">
-        <v>0.0001006335352583672</v>
+        <v>0.06389876993475524</v>
       </c>
       <c r="T11">
-        <v>0.0001353372035569321</v>
+        <v>0.08973784597676943</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -1154,7 +1154,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1163,51 +1163,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.030141</v>
+        <v>0.011109</v>
       </c>
       <c r="H12">
-        <v>0.090423</v>
+        <v>0.033327</v>
       </c>
       <c r="I12">
-        <v>0.104354961283655</v>
+        <v>0.07191385097409637</v>
       </c>
       <c r="J12">
-        <v>0.1487699982231114</v>
+        <v>0.1041267004517875</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.423194333333333</v>
+        <v>0.004358333333333333</v>
       </c>
       <c r="N12">
-        <v>4.269583</v>
+        <v>0.013075</v>
       </c>
       <c r="O12">
-        <v>0.1134534012532963</v>
+        <v>0.0001836902450013424</v>
       </c>
       <c r="P12">
-        <v>0.1605391619578727</v>
+        <v>0.0002672458280626801</v>
       </c>
       <c r="Q12">
-        <v>0.042896500401</v>
+        <v>4.8416725E-05</v>
       </c>
       <c r="R12">
-        <v>0.386068503609</v>
+        <v>0.000435750525</v>
       </c>
       <c r="S12">
-        <v>0.01183942529528671</v>
+        <v>1.320987290442179E-05</v>
       </c>
       <c r="T12">
-        <v>0.02388341083921251</v>
+        <v>2.782742628567259E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -1216,7 +1216,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1225,16 +1225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.030141</v>
+        <v>0.011109</v>
       </c>
       <c r="H13">
-        <v>0.090423</v>
+        <v>0.033327</v>
       </c>
       <c r="I13">
-        <v>0.104354961283655</v>
+        <v>0.07191385097409637</v>
       </c>
       <c r="J13">
-        <v>0.1487699982231114</v>
+        <v>0.1041267004517875</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.03377933333333333</v>
+        <v>0.02248066666666667</v>
       </c>
       <c r="N13">
-        <v>0.101338</v>
+        <v>0.067442</v>
       </c>
       <c r="O13">
-        <v>0.002692801797319911</v>
+        <v>0.0009474904400291039</v>
       </c>
       <c r="P13">
-        <v>0.003810376234514449</v>
+        <v>0.001378477486516503</v>
       </c>
       <c r="Q13">
-        <v>0.001018142886</v>
+        <v>0.000249737726</v>
       </c>
       <c r="R13">
-        <v>0.009163285974000001</v>
+        <v>0.002247639534</v>
       </c>
       <c r="S13">
-        <v>0.0002810072273038759</v>
+        <v>6.813768630363397E-05</v>
       </c>
       <c r="T13">
-        <v>0.0005668696656381004</v>
+        <v>0.0001435363123180368</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,25 +1278,25 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.030141</v>
+        <v>0.073309</v>
       </c>
       <c r="H14">
-        <v>0.090423</v>
+        <v>0.146618</v>
       </c>
       <c r="I14">
-        <v>0.104354961283655</v>
+        <v>0.4745640922729347</v>
       </c>
       <c r="J14">
-        <v>0.1487699982231114</v>
+        <v>0.4580924945791753</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.037648</v>
+        <v>1.172497</v>
       </c>
       <c r="N14">
-        <v>22.075296</v>
+        <v>2.344994</v>
       </c>
       <c r="O14">
-        <v>0.8798929830641373</v>
+        <v>0.04941711537896878</v>
       </c>
       <c r="P14">
-        <v>0.8300458194188937</v>
+        <v>0.04793039107701846</v>
       </c>
       <c r="Q14">
-        <v>0.332685748368</v>
+        <v>0.085954582573</v>
       </c>
       <c r="R14">
-        <v>1.996114490208</v>
+        <v>0.343818330292</v>
       </c>
       <c r="S14">
-        <v>0.09182119818141775</v>
+        <v>0.0234515885025672</v>
       </c>
       <c r="T14">
-        <v>0.1234859150800499</v>
+        <v>0.02195655241462683</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.030141</v>
+        <v>0.073309</v>
       </c>
       <c r="H15">
-        <v>0.090423</v>
+        <v>0.146618</v>
       </c>
       <c r="I15">
-        <v>0.104354961283655</v>
+        <v>0.4745640922729347</v>
       </c>
       <c r="J15">
-        <v>0.1487699982231114</v>
+        <v>0.4580924945791753</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.044712</v>
+        <v>1.423194333333333</v>
       </c>
       <c r="N15">
-        <v>0.134136</v>
+        <v>4.269583</v>
       </c>
       <c r="O15">
-        <v>0.003564325937805202</v>
+        <v>0.05998323115285403</v>
       </c>
       <c r="P15">
-        <v>0.00504360285966597</v>
+        <v>0.08726793455581965</v>
       </c>
       <c r="Q15">
-        <v>0.001347664392</v>
+        <v>0.1043329533823333</v>
       </c>
       <c r="R15">
-        <v>0.012128979528</v>
+        <v>0.625997720294</v>
       </c>
       <c r="S15">
-        <v>0.0003719550952419891</v>
+        <v>0.02846588764365179</v>
       </c>
       <c r="T15">
-        <v>0.0007503367884705859</v>
+        <v>0.03997678583744764</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,55 +1402,241 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.073309</v>
+      </c>
+      <c r="H16">
+        <v>0.146618</v>
+      </c>
+      <c r="I16">
+        <v>0.4745640922729347</v>
+      </c>
+      <c r="J16">
+        <v>0.4580924945791753</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02188533333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.06565600000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.0009223989847654408</v>
+      </c>
+      <c r="P16">
+        <v>0.001341972626178457</v>
+      </c>
+      <c r="Q16">
+        <v>0.001604391901333334</v>
+      </c>
+      <c r="R16">
+        <v>0.009626351408</v>
+      </c>
+      <c r="S16">
+        <v>0.0004377374369186879</v>
+      </c>
+      <c r="T16">
+        <v>0.0006147475879830566</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.073309</v>
+      </c>
+      <c r="H17">
+        <v>0.146618</v>
+      </c>
+      <c r="I17">
+        <v>0.4745640922729347</v>
+      </c>
+      <c r="J17">
+        <v>0.4580924945791753</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.082121</v>
+      </c>
+      <c r="N17">
+        <v>42.164242</v>
+      </c>
+      <c r="O17">
+        <v>0.8885460737983815</v>
+      </c>
+      <c r="P17">
+        <v>0.8618139784264042</v>
+      </c>
+      <c r="Q17">
+        <v>1.545509208389</v>
+      </c>
+      <c r="R17">
+        <v>6.182036833556</v>
+      </c>
+      <c r="S17">
+        <v>0.4216720609548089</v>
+      </c>
+      <c r="T17">
+        <v>0.3947905152405551</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.073309</v>
+      </c>
+      <c r="H18">
+        <v>0.146618</v>
+      </c>
+      <c r="I18">
+        <v>0.4745640922729347</v>
+      </c>
+      <c r="J18">
+        <v>0.4580924945791753</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.004358333333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.013075</v>
+      </c>
+      <c r="O18">
+        <v>0.0001836902450013424</v>
+      </c>
+      <c r="P18">
+        <v>0.0002672458280626801</v>
+      </c>
+      <c r="Q18">
+        <v>0.0003195050583333333</v>
+      </c>
+      <c r="R18">
+        <v>0.00191703035</v>
+      </c>
+      <c r="S18">
+        <v>8.717279437845502E-05</v>
+      </c>
+      <c r="T18">
+        <v>0.0001224233080431105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.030141</v>
-      </c>
-      <c r="H16">
-        <v>0.090423</v>
-      </c>
-      <c r="I16">
-        <v>0.104354961283655</v>
-      </c>
-      <c r="J16">
-        <v>0.1487699982231114</v>
-      </c>
-      <c r="K16">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.073309</v>
+      </c>
+      <c r="H19">
+        <v>0.146618</v>
+      </c>
+      <c r="I19">
+        <v>0.4745640922729347</v>
+      </c>
+      <c r="J19">
+        <v>0.4580924945791753</v>
+      </c>
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="L16">
+      <c r="L19">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M16">
-        <v>0.004973666666666666</v>
-      </c>
-      <c r="N16">
-        <v>0.014921</v>
-      </c>
-      <c r="O16">
-        <v>0.0003964879474413387</v>
-      </c>
-      <c r="P16">
-        <v>0.0005610395290531693</v>
-      </c>
-      <c r="Q16">
-        <v>0.000149911287</v>
-      </c>
-      <c r="R16">
-        <v>0.001349201583</v>
-      </c>
-      <c r="S16">
-        <v>4.137548440467674E-05</v>
-      </c>
-      <c r="T16">
-        <v>8.346584974033525E-05</v>
+      <c r="M19">
+        <v>0.02248066666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.067442</v>
+      </c>
+      <c r="O19">
+        <v>0.0009474904400291039</v>
+      </c>
+      <c r="P19">
+        <v>0.001378477486516503</v>
+      </c>
+      <c r="Q19">
+        <v>0.001648035192666667</v>
+      </c>
+      <c r="R19">
+        <v>0.009888211156</v>
+      </c>
+      <c r="S19">
+        <v>0.0004496449406096951</v>
+      </c>
+      <c r="T19">
+        <v>0.0006314701905195762</v>
       </c>
     </row>
   </sheetData>
